--- a/Consumer/Proctor & Gamble.xlsx
+++ b/Consumer/Proctor & Gamble.xlsx
@@ -5,30 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B168BA3F-C67C-E446-8B13-CC579242E2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F3B27E-31E5-1149-AA09-4815EE0B7500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27540" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$19:$AL$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$B$3:$AL$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$AL$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$AL$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$AL$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$106:$AL$106</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -976,18 +962,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1025,12 +999,6 @@
     <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1048,6 +1016,24 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2534,13 +2520,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>164.9</v>
+    <v>158.11000000000001</v>
     <v>122.18</v>
-    <v>0.39350000000000002</v>
-    <v>0.05</v>
-    <v>3.3110000000000002E-4</v>
-    <v>-0.15</v>
-    <v>-9.9299999999999996E-4</v>
+    <v>0.39739999999999998</v>
+    <v>0.36</v>
+    <v>2.3370000000000001E-3</v>
+    <v>0.1</v>
+    <v>6.4769999999999997E-4</v>
     <v>USD</v>
     <v>The Procter &amp; Gamble Company is focused on providing branded consumer packaged goods to the consumers across the world. The Company operates through five segments: Beauty; Grooming; Health Care; Fabric &amp; Home Care, and Baby, Feminine &amp; Family Care. The Company sells its products through approximately 180 countries and territories primarily through mass merchandisers, grocery stores, membership club stores, drug stores, department stores, distributors, wholesalers, baby stores, specialty beauty stores, e-commerce, high-frequency stores, pharmacies, electronics stores and professional channels. It offers products under the brands, such as Head &amp; Shoulders, Herbal Essences, Pantene, Rejoice, Olay, Old Spice, Safeguard, Secret, SK-II, Braun, Gillette, Venus, Crest, Oral-B, Metamucil, Neurobion, Pepto-Bismol, Vicks, Ariel, Downy, Gain, Tide, Cascade, Dawn, Fairy, Febreze, Mr. Clean, Swiffer, Luvs, Pampers, Always, Always Discreet, Tampax, Bounty, Charmin and Puffs.</v>
     <v>106000</v>
@@ -2548,25 +2534,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>One Procter &amp; Gamble Plaza, CINCINNATI, OH, 45202 US</v>
-    <v>151.47</v>
+    <v>154.88999999999999</v>
     <v>Personal &amp; Household Products &amp; Services</v>
     <v>Stock</v>
-    <v>45033.999518240627</v>
+    <v>45057.999321481249</v>
     <v>0</v>
-    <v>150.34</v>
-    <v>356348701200</v>
+    <v>153.38999999999999</v>
+    <v>363892443909</v>
     <v>THE PROCTER &amp; GAMBLE COMPANY</v>
     <v>THE PROCTER &amp; GAMBLE COMPANY</v>
-    <v>151.16999999999999</v>
-    <v>26.519100000000002</v>
-    <v>151</v>
-    <v>151.05000000000001</v>
-    <v>150.9</v>
-    <v>2359144000</v>
+    <v>154.81</v>
+    <v>26.827300000000001</v>
+    <v>154.03</v>
+    <v>154.38999999999999</v>
+    <v>154.49</v>
+    <v>2356969000</v>
     <v>PG</v>
     <v>THE PROCTER &amp; GAMBLE COMPANY (XNYS:PG)</v>
-    <v>4296401</v>
-    <v>6694001</v>
+    <v>3495324</v>
+    <v>5645722</v>
     <v>1905</v>
   </rv>
   <rv s="2">
@@ -3154,10 +3140,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN130" sqref="AN130"/>
+      <selection pane="bottomRight" activeCell="AP94" sqref="AP94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3586,7 +3572,7 @@
         <v>0.10664046338436073</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:AR4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:AQ4" si="0">(F3/E3)-1</f>
         <v>0.12538555005140672</v>
       </c>
       <c r="G4" s="15">
@@ -4255,7 +4241,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C9" s="15" t="e">
-        <f t="shared" ref="C9:AM9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:AL9" si="1">C8/C3</f>
         <v>#VALUE!</v>
       </c>
       <c r="D9" s="15" t="e">
@@ -4796,7 +4782,7 @@
         <v>0.27883930306366994</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:AM13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:AL13" si="2">C12/C3</f>
         <v>0.34011764705882352</v>
       </c>
       <c r="D13" s="15">
@@ -5321,15 +5307,15 @@
       </c>
       <c r="AS16" s="30">
         <f>AT101/AL3</f>
-        <v>4.4439709828276408</v>
+        <v>4.5380478619851097</v>
       </c>
       <c r="AT16" s="30">
         <f>AT101/AL28</f>
-        <v>24.172344403744404</v>
+        <v>24.684062129222628</v>
       </c>
       <c r="AU16" s="31">
         <f>AT101/AL106</f>
-        <v>26.265843679516475</v>
+        <v>26.821879848824352</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -5705,7 +5691,7 @@
         <v>0.16287064890416847</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AM20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AL20" si="3">(F19/E19)-1</f>
         <v>0.21212121212121215</v>
       </c>
       <c r="G20" s="15">
@@ -6783,7 +6769,7 @@
         <v>0.18235294117647061</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AM29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AL29" si="4">(F28/E28)-1</f>
         <v>0.32835820895522394</v>
       </c>
       <c r="G29" s="15">
@@ -7505,7 +7491,7 @@
         <v>-8.7594699773245153E-3</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AM35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AL35" si="5">(D34-C34)/C34</f>
         <v>3.2911392535811566E-2</v>
       </c>
       <c r="E35" s="22">
@@ -12754,7 +12740,7 @@
         <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AM80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AL80" si="6">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
@@ -13249,10 +13235,10 @@
       <c r="AL83" s="1">
         <v>-1247000000</v>
       </c>
-      <c r="AS83" s="33" t="s">
+      <c r="AS83" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="AT83" s="34"/>
+      <c r="AT83" s="61"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13369,10 +13355,10 @@
       <c r="AL84" s="1">
         <v>1429000000</v>
       </c>
-      <c r="AS84" s="35" t="s">
+      <c r="AS84" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="AT84" s="36"/>
+      <c r="AT84" s="63"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13858,10 +13844,10 @@
       <c r="AL88" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AS88" s="37" t="s">
+      <c r="AS88" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="AT88" s="38">
+      <c r="AT88" s="34">
         <f>AT85/(AT86+AT87)</f>
         <v>1.3594277397578423E-2</v>
       </c>
@@ -13871,7 +13857,7 @@
         <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AM89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:AL89" si="7">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15" t="e">
@@ -14264,10 +14250,10 @@
       <c r="AL91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AS91" s="37" t="s">
+      <c r="AS91" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AT91" s="38">
+      <c r="AT91" s="34">
         <f>AT89/AT90</f>
         <v>0.17793831619894415</v>
       </c>
@@ -14387,10 +14373,10 @@
       <c r="AL92" s="1">
         <v>3000000</v>
       </c>
-      <c r="AS92" s="39" t="s">
+      <c r="AS92" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="AT92" s="40">
+      <c r="AT92" s="36">
         <f>AT88*(1-AT91)</f>
         <v>1.1175334567511954E-2</v>
       </c>
@@ -14510,10 +14496,10 @@
       <c r="AL93" s="1">
         <v>-3046000000</v>
       </c>
-      <c r="AS93" s="35" t="s">
+      <c r="AS93" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="AT93" s="36"/>
+      <c r="AT93" s="63"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14633,7 +14619,7 @@
       <c r="AS94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AT94" s="41">
+      <c r="AT94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -14752,12 +14738,12 @@
       <c r="AL95" s="1">
         <v>-13821000000</v>
       </c>
-      <c r="AS95" s="42" t="s">
+      <c r="AS95" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="AT95" s="43" cm="1">
+      <c r="AT95" s="39" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>0.39350000000000002</v>
+        <v>0.39739999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14878,7 +14864,7 @@
       <c r="AS96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AT96" s="41">
+      <c r="AT96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -14997,12 +14983,12 @@
       <c r="AL97" s="1">
         <v>-10003000000</v>
       </c>
-      <c r="AS97" s="39" t="s">
+      <c r="AS97" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AT97" s="40">
+      <c r="AT97" s="36">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>5.7890175000000002E-2</v>
+        <v>5.8058070000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15120,10 +15106,10 @@
       <c r="AL98" s="1">
         <v>-8770000000</v>
       </c>
-      <c r="AS98" s="35" t="s">
+      <c r="AS98" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="AT98" s="36"/>
+      <c r="AT98" s="63"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15363,12 +15349,12 @@
       <c r="AL100" s="10">
         <v>-14876000000</v>
       </c>
-      <c r="AS100" s="37" t="s">
+      <c r="AS100" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="AT100" s="38">
+      <c r="AT100" s="34">
         <f>AT99/AT103</f>
-        <v>8.3091958223447587E-2</v>
+        <v>8.150980934932428E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15486,12 +15472,12 @@
       <c r="AL101" s="1">
         <v>-497000000</v>
       </c>
-      <c r="AS101" s="42" t="s">
+      <c r="AS101" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="AT101" s="44" cm="1">
+      <c r="AT101" s="40" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>356348701200</v>
+        <v>363892443909</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15609,12 +15595,12 @@
       <c r="AL102" s="10">
         <v>-3074000000</v>
       </c>
-      <c r="AS102" s="37" t="s">
+      <c r="AS102" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="AT102" s="38">
+      <c r="AT102" s="34">
         <f>AT101/AT103</f>
-        <v>0.91690804177655238</v>
+        <v>0.91849019065067572</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15732,12 +15718,12 @@
       <c r="AL103" s="1">
         <v>10288000000</v>
       </c>
-      <c r="AS103" s="39" t="s">
+      <c r="AS103" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="AT103" s="45">
+      <c r="AT103" s="41">
         <f>AT99+AT101</f>
-        <v>388641701200</v>
+        <v>396185443909</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -15855,10 +15841,10 @@
       <c r="AL104" s="11">
         <v>7214000000</v>
       </c>
-      <c r="AS104" s="35" t="s">
+      <c r="AS104" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="AT104" s="36"/>
+      <c r="AT104" s="63"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -15886,7 +15872,7 @@
         <v>-0.87252124645892348</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:AM105" si="8">(H106/G106)-1</f>
+        <f t="shared" ref="H105:AL105" si="8">(H106/G106)-1</f>
         <v>11.877777777777778</v>
       </c>
       <c r="I105" s="15">
@@ -16020,7 +16006,7 @@
       </c>
       <c r="AT105" s="26">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>5.4008547430368682E-2</v>
+        <v>5.4236667173123095E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16138,33 +16124,33 @@
       <c r="AL106" s="1">
         <v>13567000000</v>
       </c>
-      <c r="AM106" s="46">
+      <c r="AM106" s="42">
         <f>AL106*(1+$AT$106)</f>
         <v>13979762421.432787</v>
       </c>
-      <c r="AN106" s="46">
+      <c r="AN106" s="42">
         <f t="shared" ref="AN106:AQ106" si="9">AM106*(1+$AT$106)</f>
         <v>14405082727.183924</v>
       </c>
-      <c r="AO106" s="46">
+      <c r="AO106" s="42">
         <f t="shared" si="9"/>
         <v>14843342978.338345</v>
       </c>
-      <c r="AP106" s="46">
+      <c r="AP106" s="42">
         <f t="shared" si="9"/>
         <v>15294936859.807814</v>
       </c>
-      <c r="AQ106" s="46">
+      <c r="AQ106" s="42">
         <f t="shared" si="9"/>
         <v>15760270033.974236</v>
       </c>
-      <c r="AR106" s="47" t="s">
+      <c r="AR106" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="AS106" s="48" t="s">
+      <c r="AS106" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="AT106" s="49">
+      <c r="AT106" s="45">
         <f>(SUM(AM4:AQ4)/5)</f>
         <v>3.0424000990107291E-2</v>
       </c>
@@ -16208,151 +16194,151 @@
       <c r="AJ107" s="13"/>
       <c r="AK107" s="13"/>
       <c r="AL107" s="13"/>
-      <c r="AM107" s="47"/>
-      <c r="AN107" s="47"/>
-      <c r="AO107" s="47"/>
-      <c r="AP107" s="47"/>
-      <c r="AQ107" s="50">
+      <c r="AM107" s="43"/>
+      <c r="AN107" s="43"/>
+      <c r="AO107" s="43"/>
+      <c r="AP107" s="43"/>
+      <c r="AQ107" s="46">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>556879892852.26611</v>
-      </c>
-      <c r="AR107" s="51" t="s">
+        <v>552534825162.08337</v>
+      </c>
+      <c r="AR107" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="AS107" s="52" t="s">
+      <c r="AS107" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="AT107" s="53">
+      <c r="AT107" s="49">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM108" s="50">
+      <c r="AM108" s="46">
         <f t="shared" ref="AM108:AO108" si="10">AM107+AM106</f>
         <v>13979762421.432787</v>
       </c>
-      <c r="AN108" s="50">
+      <c r="AN108" s="46">
         <f t="shared" si="10"/>
         <v>14405082727.183924</v>
       </c>
-      <c r="AO108" s="50">
+      <c r="AO108" s="46">
         <f t="shared" si="10"/>
         <v>14843342978.338345</v>
       </c>
-      <c r="AP108" s="50">
+      <c r="AP108" s="46">
         <f>AP107+AP106</f>
         <v>15294936859.807814</v>
       </c>
-      <c r="AQ108" s="50">
+      <c r="AQ108" s="46">
         <f>AQ107+AQ106</f>
-        <v>572640162886.24036</v>
-      </c>
-      <c r="AR108" s="51" t="s">
+        <v>568295095196.05762</v>
+      </c>
+      <c r="AR108" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="AS108" s="54" t="s">
+      <c r="AS108" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="AT108" s="55">
+      <c r="AT108" s="51">
         <f>AT105</f>
-        <v>5.4008547430368682E-2</v>
+        <v>5.4236667173123095E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM109" s="56" t="s">
+      <c r="AM109" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="AN109" s="57"/>
+      <c r="AN109" s="65"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM110" s="58" t="s">
+      <c r="AM110" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="AN110" s="44">
+      <c r="AN110" s="40">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>491510666764.30084</v>
+        <v>487670554880.29907</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM111" s="58" t="s">
+      <c r="AM111" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="AN111" s="44">
+      <c r="AN111" s="40">
         <f>AL40</f>
         <v>7214000000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM112" s="58" t="s">
+      <c r="AM112" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="AN112" s="44">
+      <c r="AN112" s="40">
         <f>AT99</f>
         <v>32293000000</v>
       </c>
     </row>
     <row r="113" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM113" s="58" t="s">
+      <c r="AM113" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="AN113" s="44">
+      <c r="AN113" s="40">
         <f>AN110+AN111-AN112</f>
-        <v>466431666764.30084</v>
+        <v>462591554880.29907</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM114" s="58" t="s">
+      <c r="AM114" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="AN114" s="59">
+      <c r="AN114" s="53">
         <f>AL34*(1+(5*AR16))</f>
         <v>2348286720.6960764</v>
       </c>
     </row>
     <row r="115" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM115" s="60" t="s">
+      <c r="AM115" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="AN115" s="61">
+      <c r="AN115" s="55">
         <f>AN113/AN114</f>
-        <v>198.62636987788343</v>
+        <v>196.99108750364957</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM116" s="58" t="s">
+      <c r="AM116" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="AN116" s="62" cm="1">
+      <c r="AN116" s="56" cm="1">
         <f t="array" ref="AN116">_FV(A1,"Price")</f>
-        <v>151.05000000000001</v>
+        <v>154.38999999999999</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM117" s="63" t="s">
+      <c r="AM117" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="AN117" s="64">
+      <c r="AN117" s="58">
         <f>AN115/AN116-1</f>
-        <v>0.31497100217069463</v>
+        <v>0.275931650389595</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM118" s="63" t="s">
+      <c r="AM118" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="AN118" s="65" t="str">
+      <c r="AN118" s="59" t="str">
         <f>IF(AN115&gt;AN116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AM109:AN109"/>
     <mergeCell ref="AS83:AT83"/>
     <mergeCell ref="AS84:AT84"/>
     <mergeCell ref="AS93:AT93"/>
     <mergeCell ref="AS98:AT98"/>
     <mergeCell ref="AS104:AT104"/>
-    <mergeCell ref="AM109:AN109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/PG" display="ROIC.AI | PG" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Consumer/Proctor & Gamble.xlsx
+++ b/Consumer/Proctor & Gamble.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F3B27E-31E5-1149-AA09-4815EE0B7500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59355E8-81C4-5E4A-A752-181A70E0FDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1017,6 +1017,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,12 +1034,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2522,11 +2522,9 @@
     <v>Powered by Refinitiv</v>
     <v>158.11000000000001</v>
     <v>122.18</v>
-    <v>0.39739999999999998</v>
-    <v>0.36</v>
-    <v>2.3370000000000001E-3</v>
-    <v>0.1</v>
-    <v>6.4769999999999997E-4</v>
+    <v>0.40589999999999998</v>
+    <v>-1.79</v>
+    <v>-1.1937E-2</v>
     <v>USD</v>
     <v>The Procter &amp; Gamble Company is focused on providing branded consumer packaged goods to the consumers across the world. The Company operates through five segments: Beauty; Grooming; Health Care; Fabric &amp; Home Care, and Baby, Feminine &amp; Family Care. The Company sells its products through approximately 180 countries and territories primarily through mass merchandisers, grocery stores, membership club stores, drug stores, department stores, distributors, wholesalers, baby stores, specialty beauty stores, e-commerce, high-frequency stores, pharmacies, electronics stores and professional channels. It offers products under the brands, such as Head &amp; Shoulders, Herbal Essences, Pantene, Rejoice, Olay, Old Spice, Safeguard, Secret, SK-II, Braun, Gillette, Venus, Crest, Oral-B, Metamucil, Neurobion, Pepto-Bismol, Vicks, Ariel, Downy, Gain, Tide, Cascade, Dawn, Fairy, Febreze, Mr. Clean, Swiffer, Luvs, Pampers, Always, Always Discreet, Tampax, Bounty, Charmin and Puffs.</v>
     <v>106000</v>
@@ -2534,25 +2532,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>One Procter &amp; Gamble Plaza, CINCINNATI, OH, 45202 US</v>
-    <v>154.88999999999999</v>
+    <v>150.505</v>
     <v>Personal &amp; Household Products &amp; Services</v>
     <v>Stock</v>
-    <v>45057.999321481249</v>
+    <v>45100.782738610935</v>
     <v>0</v>
-    <v>153.38999999999999</v>
-    <v>363892443909</v>
+    <v>148.11000000000001</v>
+    <v>349208527040</v>
     <v>THE PROCTER &amp; GAMBLE COMPANY</v>
     <v>THE PROCTER &amp; GAMBLE COMPANY</v>
-    <v>154.81</v>
-    <v>26.827300000000001</v>
-    <v>154.03</v>
-    <v>154.38999999999999</v>
-    <v>154.49</v>
+    <v>150.27000000000001</v>
+    <v>26.116599999999998</v>
+    <v>149.94999999999999</v>
+    <v>148.16</v>
     <v>2356969000</v>
     <v>PG</v>
     <v>THE PROCTER &amp; GAMBLE COMPANY (XNYS:PG)</v>
-    <v>3495324</v>
-    <v>5645722</v>
+    <v>3235691</v>
+    <v>6444767</v>
     <v>1905</v>
   </rv>
   <rv s="2">
@@ -2584,8 +2581,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2606,7 +2601,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2623,7 +2617,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2634,16 +2628,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2709,19 +2700,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2766,9 +2751,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2776,9 +2758,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3140,10 +3119,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP94" sqref="AP94"/>
+      <selection pane="bottomRight" activeCell="AK115" sqref="AK115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5307,15 +5286,15 @@
       </c>
       <c r="AS16" s="30">
         <f>AT101/AL3</f>
-        <v>4.5380478619851097</v>
+        <v>4.3549269462631104</v>
       </c>
       <c r="AT16" s="30">
         <f>AT101/AL28</f>
-        <v>24.684062129222628</v>
+        <v>23.688002105548772</v>
       </c>
       <c r="AU16" s="31">
         <f>AT101/AL106</f>
-        <v>26.821879848824352</v>
+        <v>25.73955384683423</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -13235,10 +13214,10 @@
       <c r="AL83" s="1">
         <v>-1247000000</v>
       </c>
-      <c r="AS83" s="60" t="s">
+      <c r="AS83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="AT83" s="61"/>
+      <c r="AT83" s="63"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13355,10 +13334,10 @@
       <c r="AL84" s="1">
         <v>1429000000</v>
       </c>
-      <c r="AS84" s="62" t="s">
+      <c r="AS84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AT84" s="63"/>
+      <c r="AT84" s="65"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14496,10 +14475,10 @@
       <c r="AL93" s="1">
         <v>-3046000000</v>
       </c>
-      <c r="AS93" s="62" t="s">
+      <c r="AS93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="AT93" s="63"/>
+      <c r="AT93" s="65"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14743,7 +14722,7 @@
       </c>
       <c r="AT95" s="39" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>0.39739999999999998</v>
+        <v>0.40589999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14988,7 +14967,7 @@
       </c>
       <c r="AT97" s="36">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>5.8058070000000003E-2</v>
+        <v>5.8423995000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15106,10 +15085,10 @@
       <c r="AL98" s="1">
         <v>-8770000000</v>
       </c>
-      <c r="AS98" s="62" t="s">
+      <c r="AS98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="AT98" s="63"/>
+      <c r="AT98" s="65"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15354,7 +15333,7 @@
       </c>
       <c r="AT100" s="34">
         <f>AT99/AT103</f>
-        <v>8.150980934932428E-2</v>
+        <v>8.4647105479643645E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15477,7 +15456,7 @@
       </c>
       <c r="AT101" s="40" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>363892443909</v>
+        <v>349208527040</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15600,7 +15579,7 @@
       </c>
       <c r="AT102" s="34">
         <f>AT101/AT103</f>
-        <v>0.91849019065067572</v>
+        <v>0.9153528945203564</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15723,7 +15702,7 @@
       </c>
       <c r="AT103" s="41">
         <f>AT99+AT101</f>
-        <v>396185443909</v>
+        <v>381501527040</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -15841,10 +15820,10 @@
       <c r="AL104" s="11">
         <v>7214000000</v>
       </c>
-      <c r="AS104" s="62" t="s">
+      <c r="AS104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="AT104" s="63"/>
+      <c r="AT104" s="65"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16006,7 +15985,7 @@
       </c>
       <c r="AT105" s="26">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>5.4236667173123095E-2</v>
+        <v>5.4424532656599328E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16200,7 +16179,7 @@
       <c r="AP107" s="43"/>
       <c r="AQ107" s="46">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>552534825162.08337</v>
+        <v>549007081041.96558</v>
       </c>
       <c r="AR107" s="47" t="s">
         <v>148</v>
@@ -16231,7 +16210,7 @@
       </c>
       <c r="AQ108" s="46">
         <f>AQ107+AQ106</f>
-        <v>568295095196.05762</v>
+        <v>564767351075.93982</v>
       </c>
       <c r="AR108" s="47" t="s">
         <v>144</v>
@@ -16241,14 +16220,14 @@
       </c>
       <c r="AT108" s="51">
         <f>AT105</f>
-        <v>5.4236667173123095E-2</v>
+        <v>5.4424532656599328E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM109" s="64" t="s">
+      <c r="AM109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="AN109" s="65"/>
+      <c r="AN109" s="61"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="AM110" s="52" t="s">
@@ -16256,7 +16235,7 @@
       </c>
       <c r="AN110" s="40">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>487670554880.29907</v>
+        <v>484552785746.78839</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16283,7 +16262,7 @@
       </c>
       <c r="AN113" s="40">
         <f>AN110+AN111-AN112</f>
-        <v>462591554880.29907</v>
+        <v>459473785746.78839</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16301,7 +16280,7 @@
       </c>
       <c r="AN115" s="55">
         <f>AN113/AN114</f>
-        <v>196.99108750364957</v>
+        <v>195.66340928359537</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16310,7 +16289,7 @@
       </c>
       <c r="AN116" s="56" cm="1">
         <f t="array" ref="AN116">_FV(A1,"Price")</f>
-        <v>154.38999999999999</v>
+        <v>148.16</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16319,7 +16298,7 @@
       </c>
       <c r="AN117" s="58">
         <f>AN115/AN116-1</f>
-        <v>0.275931650389595</v>
+        <v>0.32062236287523871</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
